--- a/OnBoard/output/trust/catch/Catch_Trust_19.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_19.xlsx
@@ -2212,7 +2212,7 @@
         <v>0.043</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I45">
         <v>73.96263157894737</v>
@@ -2253,7 +2253,7 @@
         <v>0.001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I46">
         <v>73.96263157894737</v>
@@ -2376,7 +2376,7 @@
         <v>0.494</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I49">
         <v>73.96263157894737</v>
@@ -3196,7 +3196,7 @@
         <v>0.734</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I69">
         <v>73.96263157894737</v>
@@ -3278,7 +3278,7 @@
         <v>0.007</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I71">
         <v>73.96263157894737</v>
